--- a/pygym/Book1.xlsx
+++ b/pygym/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasraffray/Desktop/Makers_Course/Final_Project/Net-Positive-Makers/pygym/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{866B09E8-8A86-D742-B936-D66507CBA0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B3220-26B3-9345-9A94-AD6B15CEADEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{6F7778BD-9190-1A4A-AC03-DB6B277F96C5}"/>
   </bookViews>
@@ -18951,15 +18951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>1146</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>394874</xdr:colOff>
+      <xdr:row>1145</xdr:row>
+      <xdr:rowOff>85379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>1172</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
